--- a/database/items_data.xlsx
+++ b/database/items_data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Java Projects\Zalando-Price-Tracker\database\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21446" uniqueCount="3008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22846" uniqueCount="3012">
   <si>
     <t>https://en.zalando.de/million-for-president-print-t-shirt-black-mxn22o006-q11.html</t>
   </si>
@@ -9045,12 +9045,25 @@
   </si>
   <si>
     <t>spl22o018-a11-3XL</t>
+  </si>
+  <si>
+    <t>2023-08-18</t>
+  </si>
+  <si>
+    <t>57.95</t>
+  </si>
+  <si>
+    <t>17.47</t>
+  </si>
+  <si>
+    <t>23.19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11105,7 +11118,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J2111"/>
+  <dimension ref="A1:J2251"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2093" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
@@ -78665,6 +78678,4486 @@
         <v>333</v>
       </c>
     </row>
+    <row r="2112">
+      <c r="A2112" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2112" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2112" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2112" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2112" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2112" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2112" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2113" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2113" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2113" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2113" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2113" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2113" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114" t="s">
+        <v>336</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2114" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2114" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2114" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2114" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2114" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2114" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2115" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2115" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2115" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2115" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2115" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2115" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>325</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>326</v>
+      </c>
+      <c r="D2116" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2116" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2116" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2116" t="s">
+        <v>331</v>
+      </c>
+      <c r="I2116" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2116" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2117" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2117" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2117" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2117" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2117" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2117" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2118" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2118" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2118" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2118" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2118" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2118" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2119" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2119" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2119" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2119" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2119" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2119" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2120" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2120" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2120" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2120" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2120" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2120" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2121" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2121" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2121" t="s">
+        <v>347</v>
+      </c>
+      <c r="H2121" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2121" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2121" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2122" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2122" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2122" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2122" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2122" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2122" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123" t="s">
+        <v>360</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2123" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2123" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2123" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2123" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2123" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2123" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2124" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2124" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2124" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2124" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2124" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2124" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2125" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2125" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2125" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2125" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2125" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2125" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2126" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2126" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2126" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2126" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2126" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2126" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>354</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>355</v>
+      </c>
+      <c r="D2127" t="s">
+        <v>356</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2127" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2127" t="s">
+        <v>358</v>
+      </c>
+      <c r="H2127" t="s">
+        <v>359</v>
+      </c>
+      <c r="I2127" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2127" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2128" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2128" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2128" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2128" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2128" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2128" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129" t="s">
+        <v>370</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2129" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2129" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2129" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2129" t="s">
+        <v>3009</v>
+      </c>
+      <c r="I2129" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2129" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2130" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2130" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2130" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2130" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2130" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2130" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2131" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2131" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2131" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2131" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2131" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2131" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132" t="s">
+        <v>373</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2132" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2132" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2132" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2132" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2132" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2132" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2133" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2133" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2133" t="s">
+        <v>368</v>
+      </c>
+      <c r="H2133" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2133" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2133" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2134" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>379</v>
+      </c>
+      <c r="F2134" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2134" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2134" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2134" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2134" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2135" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2135" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2135" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2135" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2135" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2135" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2136" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2136" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2136" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2136" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2136" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2136" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137" t="s">
+        <v>386</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2137" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2137" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2137" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2137" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2137" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2137" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138" t="s">
+        <v>388</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2138" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>389</v>
+      </c>
+      <c r="F2138" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2138" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2138" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2138" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2138" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2139" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2139" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2139" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2139" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2139" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2139" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2139" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2139" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2139" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2140" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2140" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2140" t="s">
+        <v>393</v>
+      </c>
+      <c r="F2140" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2140" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2140" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2140" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2140" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141" t="s">
+        <v>394</v>
+      </c>
+      <c r="B2141" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2141" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2141" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2141" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2141" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2141" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2141" t="s">
+        <v>381</v>
+      </c>
+      <c r="I2141" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2141" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2142" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2142" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2142" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2142" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2142" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2142" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2142" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I2142" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2142" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2143" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2143" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2143" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2143" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2143" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2143" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2143" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I2143" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2143" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144" t="s">
+        <v>402</v>
+      </c>
+      <c r="B2144" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2144" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2144" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2144" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2144" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2144" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2144" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I2144" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2144" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145" t="s">
+        <v>403</v>
+      </c>
+      <c r="B2145" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2145" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2145" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2145" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2145" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2145" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2145" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I2145" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2145" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2146" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2146" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2146" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2146" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2146" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2146" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2146" t="s">
+        <v>3010</v>
+      </c>
+      <c r="I2146" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2146" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2147" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2147" t="s">
+        <v>398</v>
+      </c>
+      <c r="D2147" t="s">
+        <v>327</v>
+      </c>
+      <c r="E2147" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2147" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2147" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2147" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2147" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2147" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2148" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2148" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2148" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2148" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2148" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2148" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2148" t="s">
+        <v>954</v>
+      </c>
+      <c r="I2148" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2148" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149" t="s">
+        <v>412</v>
+      </c>
+      <c r="B2149" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2149" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2149" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2149" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2149" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2149" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2149" t="s">
+        <v>954</v>
+      </c>
+      <c r="I2149" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2149" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2150" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2150" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2150" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2150" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2150" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2150" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2150" t="s">
+        <v>954</v>
+      </c>
+      <c r="I2150" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2150" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2151" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2151" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2151" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2151" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2151" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2151" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2151" t="s">
+        <v>954</v>
+      </c>
+      <c r="I2151" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2151" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2152" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2152" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2152" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2152" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2152" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2152" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2152" t="s">
+        <v>954</v>
+      </c>
+      <c r="I2152" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2152" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153" t="s">
+        <v>416</v>
+      </c>
+      <c r="B2153" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2153" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2153" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2153" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2153" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2153" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2153" t="s">
+        <v>954</v>
+      </c>
+      <c r="I2153" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2153" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154" t="s">
+        <v>417</v>
+      </c>
+      <c r="B2154" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2154" t="s">
+        <v>409</v>
+      </c>
+      <c r="D2154" t="s">
+        <v>410</v>
+      </c>
+      <c r="E2154" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2154" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2154" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2154" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2154" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2154" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2155" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2155" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2155" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2155" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2155" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2155" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2155" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2155" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2155" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2156" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2156" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2156" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2156" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2156" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2156" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2156" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2156" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2156" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2157" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2157" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2157" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2157" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2157" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2157" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2157" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2157" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2157" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2158" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2158" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2158" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2158" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2158" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2158" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2158" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2158" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2158" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2159" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2159" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2159" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2159" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2159" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2159" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2159" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2159" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2159" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2160" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2160" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2160" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2160" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2160" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2160" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2160" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2160" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2161" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2161" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2161" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2161" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2161" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2161" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2161" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2161" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2161" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2162" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2162" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2162" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2162" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2162" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2162" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2162" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2162" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2162" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2163" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2163" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2163" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2163" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2163" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2163" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2163" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2163" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2163" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2164" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2164" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2164" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2164" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2164" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2164" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2164" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2164" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2164" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165" t="s">
+        <v>441</v>
+      </c>
+      <c r="B2165" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2165" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2165" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2165" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2165" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2165" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2165" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2165" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2165" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2166" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2166" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2166" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2166" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2166" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2166" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2166" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2166" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2166" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2167" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2167" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2167" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2167" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2167" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2167" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2167" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2167" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2167" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168" t="s">
+        <v>447</v>
+      </c>
+      <c r="B2168" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2168" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2168" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2168" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2168" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2168" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2168" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2168" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2168" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2169" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2169" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2169" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2169" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2169" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2169" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2169" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2169" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2169" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170" t="s">
+        <v>451</v>
+      </c>
+      <c r="B2170" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2170" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2170" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2170" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2170" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2170" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2170" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2170" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2170" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171" t="s">
+        <v>453</v>
+      </c>
+      <c r="B2171" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2171" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2171" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2171" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2171" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2171" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2171" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2171" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2171" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2172" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2172" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2172" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2172" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2172" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2172" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2172" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2172" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2172" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173" t="s">
+        <v>457</v>
+      </c>
+      <c r="B2173" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2173" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2173" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2173" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2173" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2173" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2173" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2173" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2173" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2174" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2174" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2174" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2174" t="s">
+        <v>460</v>
+      </c>
+      <c r="F2174" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2174" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2174" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2174" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2174" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2175" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2175" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2175" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2175" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2175" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2175" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2175" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2175" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2175" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2176" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2176" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2176" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2176" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2176" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2176" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2176" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I2176" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2176" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2177" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2177" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2177" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2177" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2177" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2177" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2177" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2177" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2177" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2178" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2178" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2178" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2178" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2178" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2178" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2178" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2178" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2178" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2179" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2179" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2179" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2179" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2179" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2179" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2179" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2179" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2179" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2180" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2180" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2180" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2180" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2180" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2180" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2180" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I2180" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2180" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2181" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2181" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2181" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2181" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2181" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2181" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2181" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I2181" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2181" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182" t="s">
+        <v>476</v>
+      </c>
+      <c r="B2182" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2182" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2182" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2182" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2182" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2182" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2182" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I2182" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2182" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2183" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2183" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2183" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2183" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2183" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2183" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2183" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I2183" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2183" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184" t="s">
+        <v>478</v>
+      </c>
+      <c r="B2184" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2184" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2184" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2184" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2184" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2184" t="s">
+        <v>473</v>
+      </c>
+      <c r="H2184" t="s">
+        <v>473</v>
+      </c>
+      <c r="I2184" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2184" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2185" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2185" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2185" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2185" t="s">
+        <v>481</v>
+      </c>
+      <c r="F2185" t="s">
+        <v>552</v>
+      </c>
+      <c r="G2185" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2185" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2185" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2185" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2186" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2186" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2186" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2186" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2186" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2186" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2186" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2186" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2186" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2187" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2187" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2187" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2187" t="s">
+        <v>486</v>
+      </c>
+      <c r="F2187" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2187" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2187" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2187" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2187" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2188" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2188" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2188" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2188" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2188" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2188" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2188" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2188" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2188" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2189" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2189" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2189" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2189" t="s">
+        <v>490</v>
+      </c>
+      <c r="F2189" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2189" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2189" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2189" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2189" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190" t="s">
+        <v>491</v>
+      </c>
+      <c r="B2190" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2190" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2190" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2190" t="s">
+        <v>492</v>
+      </c>
+      <c r="F2190" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2190" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2190" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2190" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2190" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191" t="s">
+        <v>493</v>
+      </c>
+      <c r="B2191" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2191" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2191" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2191" t="s">
+        <v>494</v>
+      </c>
+      <c r="F2191" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2191" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2191" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2191" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2191" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2192" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2192" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2192" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2192" t="s">
+        <v>496</v>
+      </c>
+      <c r="F2192" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2192" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2192" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2192" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2192" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2193" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2193" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2193" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2193" t="s">
+        <v>498</v>
+      </c>
+      <c r="F2193" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2193" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2193" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2193" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2193" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2194" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2194" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2194" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2194" t="s">
+        <v>500</v>
+      </c>
+      <c r="F2194" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2194" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2194" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2194" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2194" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195" t="s">
+        <v>501</v>
+      </c>
+      <c r="B2195" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2195" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2195" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2195" t="s">
+        <v>502</v>
+      </c>
+      <c r="F2195" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2195" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2195" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2195" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2195" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2196" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2196" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2196" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2196" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2196" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2196" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2196" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2196" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2197" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2197" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2197" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2197" t="s">
+        <v>506</v>
+      </c>
+      <c r="F2197" t="s">
+        <v>552</v>
+      </c>
+      <c r="G2197" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2197" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2197" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2197" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2198" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2198" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2198" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2198" t="s">
+        <v>508</v>
+      </c>
+      <c r="F2198" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2198" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2198" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2198" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2198" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2199" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2199" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2199" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2199" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2199" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2199" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2199" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2199" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2199" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2200" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2200" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2200" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2200" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2200" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2200" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2200" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2200" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2200" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201" t="s">
+        <v>513</v>
+      </c>
+      <c r="B2201" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2201" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2201" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2201" t="s">
+        <v>514</v>
+      </c>
+      <c r="F2201" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2201" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2201" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2201" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2201" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202" t="s">
+        <v>515</v>
+      </c>
+      <c r="B2202" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2202" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2202" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2202" t="s">
+        <v>516</v>
+      </c>
+      <c r="F2202" t="s">
+        <v>338</v>
+      </c>
+      <c r="G2202" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2202" t="s">
+        <v>400</v>
+      </c>
+      <c r="I2202" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2202" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2203" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2203" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2203" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2203" t="s">
+        <v>518</v>
+      </c>
+      <c r="F2203" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2203" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2203" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2203" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2203" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204" t="s">
+        <v>519</v>
+      </c>
+      <c r="B2204" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2204" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2204" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2204" t="s">
+        <v>520</v>
+      </c>
+      <c r="F2204" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2204" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2204" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2204" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2204" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2205" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2205" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2205" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2205" t="s">
+        <v>522</v>
+      </c>
+      <c r="F2205" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2205" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2205" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2205" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2205" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2206" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2206" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2206" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2206" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2206" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2206" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2206" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2206" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2206" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207" t="s">
+        <v>525</v>
+      </c>
+      <c r="B2207" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2207" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2207" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2207" t="s">
+        <v>526</v>
+      </c>
+      <c r="F2207" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2207" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2207" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2207" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2207" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2208" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2208" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2208" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2208" t="s">
+        <v>528</v>
+      </c>
+      <c r="F2208" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2208" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2208" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2208" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2208" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209" t="s">
+        <v>529</v>
+      </c>
+      <c r="B2209" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2209" t="s">
+        <v>480</v>
+      </c>
+      <c r="D2209" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2209" t="s">
+        <v>530</v>
+      </c>
+      <c r="F2209" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2209" t="s">
+        <v>380</v>
+      </c>
+      <c r="H2209" t="s">
+        <v>3011</v>
+      </c>
+      <c r="I2209" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2209" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2210" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2210" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2210" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2210" t="s">
+        <v>535</v>
+      </c>
+      <c r="F2210" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2210" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2210" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2210" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2210" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2211" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2211" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2211" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2211" t="s">
+        <v>421</v>
+      </c>
+      <c r="F2211" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2211" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2211" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2211" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2211" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2212" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2212" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2212" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2212" t="s">
+        <v>424</v>
+      </c>
+      <c r="F2212" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2212" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2212" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2212" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2212" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2213" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2213" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2213" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2213" t="s">
+        <v>426</v>
+      </c>
+      <c r="F2213" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2213" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2213" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2213" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2213" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214" t="s">
+        <v>541</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2214" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2214" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2214" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2214" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2214" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2214" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2214" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2214" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2215" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2215" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2215" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2215" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2215" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2215" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2215" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2215" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2215" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2216" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2216" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2216" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2216" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2216" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2216" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2216" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2216" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2216" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217" t="s">
+        <v>544</v>
+      </c>
+      <c r="B2217" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2217" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2217" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2217" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2217" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2217" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2217" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2217" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2217" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2218" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2218" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2218" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2218" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2218" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2218" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2218" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2218" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2218" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2219" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2219" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2219" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2219" t="s">
+        <v>438</v>
+      </c>
+      <c r="F2219" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2219" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2219" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2219" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2219" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2220" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2220" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2220" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2220" t="s">
+        <v>440</v>
+      </c>
+      <c r="F2220" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2220" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2220" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2220" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2220" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2221" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2221" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2221" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2221" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2221" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2221" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2221" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2221" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2221" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222" t="s">
+        <v>549</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2222" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2222" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2222" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2222" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2222" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2222" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2222" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2223" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2223" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2223" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2223" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2223" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2223" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2223" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2223" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2223" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2224" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2224" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2224" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2224" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2224" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2224" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2224" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2224" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2224" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225" t="s">
+        <v>553</v>
+      </c>
+      <c r="B2225" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2225" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2225" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2225" t="s">
+        <v>450</v>
+      </c>
+      <c r="F2225" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2225" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2225" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2225" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2225" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2226" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2226" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2226" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2226" t="s">
+        <v>555</v>
+      </c>
+      <c r="F2226" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2226" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2226" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2226" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2226" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2227" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2227" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2227" t="s">
+        <v>452</v>
+      </c>
+      <c r="F2227" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2227" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2227" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2227" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2227" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2228" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2228" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2228" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2228" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2228" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2228" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2228" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2228" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2228" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2229" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2229" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2229" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2229" t="s">
+        <v>456</v>
+      </c>
+      <c r="F2229" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2229" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2229" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2229" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2229" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2230" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2230" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2230" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2230" t="s">
+        <v>458</v>
+      </c>
+      <c r="F2230" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2230" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2230" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2230" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2230" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231" t="s">
+        <v>560</v>
+      </c>
+      <c r="B2231" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2231" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2231" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2231" t="s">
+        <v>460</v>
+      </c>
+      <c r="F2231" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2231" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2231" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2231" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2231" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232" t="s">
+        <v>561</v>
+      </c>
+      <c r="B2232" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2232" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2232" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2232" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2232" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2232" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2232" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2232" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2232" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2233" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2233" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2233" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2233" t="s">
+        <v>464</v>
+      </c>
+      <c r="F2233" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2233" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2233" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2233" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2233" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2234" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2234" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2234" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2234" t="s">
+        <v>466</v>
+      </c>
+      <c r="F2234" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2234" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2234" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2234" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2234" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235" t="s">
+        <v>564</v>
+      </c>
+      <c r="B2235" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2235" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2235" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2235" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2235" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2235" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2235" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2235" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2235" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236" t="s">
+        <v>566</v>
+      </c>
+      <c r="B2236" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2236" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2236" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2236" t="s">
+        <v>468</v>
+      </c>
+      <c r="F2236" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2236" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2236" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2236" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2236" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237" t="s">
+        <v>567</v>
+      </c>
+      <c r="B2237" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2237" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2237" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2237" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2237" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2237" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2237" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2237" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2237" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238" t="s">
+        <v>569</v>
+      </c>
+      <c r="B2238" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2238" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2238" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2238" t="s">
+        <v>570</v>
+      </c>
+      <c r="F2238" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2238" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2238" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2238" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2238" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2239" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2239" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2239" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2239" t="s">
+        <v>572</v>
+      </c>
+      <c r="F2239" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2239" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2239" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2239" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2239" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2240" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2240" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2240" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2240" t="s">
+        <v>574</v>
+      </c>
+      <c r="F2240" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2240" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2240" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2240" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2240" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2241" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2241" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2241" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2241" t="s">
+        <v>576</v>
+      </c>
+      <c r="F2241" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2241" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2241" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2241" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2241" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2242" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2242" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2242" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2242" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2242" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2242" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2242" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2242" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2242" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2243" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2243" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2243" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2243" t="s">
+        <v>580</v>
+      </c>
+      <c r="F2243" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2243" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2243" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2243" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2243" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244" t="s">
+        <v>581</v>
+      </c>
+      <c r="B2244" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2244" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2244" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2244" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2244" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2244" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2244" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2244" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2244" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2245" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2245" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2245" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2245" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2245" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2245" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2245" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2245" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2245" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246" t="s">
+        <v>585</v>
+      </c>
+      <c r="B2246" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2246" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2246" t="s">
+        <v>534</v>
+      </c>
+      <c r="E2246" t="s">
+        <v>586</v>
+      </c>
+      <c r="F2246" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2246" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2246" t="s">
+        <v>537</v>
+      </c>
+      <c r="I2246" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2246" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2247" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2247" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2247" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2247" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2247" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2247" t="s">
+        <v>590</v>
+      </c>
+      <c r="H2247" t="s">
+        <v>591</v>
+      </c>
+      <c r="I2247" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2247" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2248" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2248" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2248" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2248" t="s">
+        <v>335</v>
+      </c>
+      <c r="F2248" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2248" t="s">
+        <v>590</v>
+      </c>
+      <c r="H2248" t="s">
+        <v>591</v>
+      </c>
+      <c r="I2248" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2248" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2249" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2249" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2249" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2249" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2249" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2249" t="s">
+        <v>590</v>
+      </c>
+      <c r="H2249" t="s">
+        <v>591</v>
+      </c>
+      <c r="I2249" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2249" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2250" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2250" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2250" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2250" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2250" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2250" t="s">
+        <v>590</v>
+      </c>
+      <c r="H2250" t="s">
+        <v>591</v>
+      </c>
+      <c r="I2250" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2250" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251" t="s">
+        <v>595</v>
+      </c>
+      <c r="B2251" t="s">
+        <v>408</v>
+      </c>
+      <c r="C2251" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2251" t="s">
+        <v>589</v>
+      </c>
+      <c r="E2251" t="s">
+        <v>342</v>
+      </c>
+      <c r="F2251" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2251" t="s">
+        <v>590</v>
+      </c>
+      <c r="H2251" t="s">
+        <v>591</v>
+      </c>
+      <c r="I2251" t="s">
+        <v>332</v>
+      </c>
+      <c r="J2251" t="s">
+        <v>3008</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
